--- a/Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
+++ b/Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG.xlsx
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30918.256420603</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="5">
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10668.2801706873</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8955.81822164506</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7">
@@ -640,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6269.07275515154</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="8">
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21593.4728232997</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6519.50454875336</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="10">
@@ -664,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10746.9818659741</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="11">
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1492.63637027418</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12">
@@ -680,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>84311.3566172133</v>
+        <v>88600</v>
       </c>
     </row>
     <row r="13">
@@ -688,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>58903.7581783917</v>
+        <v>61900</v>
       </c>
     </row>
     <row r="14">
@@ -696,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26205.3073900763</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>30018.7663013187</v>
+        <v>30700</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22782.9724697305</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="17">
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>71771.2523295373</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="18">
@@ -728,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>18578.3895675914</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="19">
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>59157.50362312</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="20">
@@ -744,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12515.9677086932</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="21">
@@ -752,7 +752,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17796.1415857981</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="22">
@@ -789,145 +789,109 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>28483.4179109526</v>
-      </c>
+      <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>9828.14419930636</v>
-      </c>
+      <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>8459.62273889667</v>
-      </c>
+      <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>5921.73591722767</v>
-      </c>
+      <c r="B7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>20397.090381562</v>
-      </c>
+      <c r="B8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6006.08812179833</v>
-      </c>
+      <c r="B9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10151.547286676</v>
-      </c>
+      <c r="B10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1409.93712314945</v>
-      </c>
+      <c r="B11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>72396.0136119228</v>
-      </c>
+      <c r="B12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>50579.1562367723</v>
-      </c>
+      <c r="B13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>20676.9231589232</v>
-      </c>
+      <c r="B14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>23685.8783947366</v>
-      </c>
+      <c r="B15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>17976.5787165266</v>
-      </c>
+      <c r="B16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>56630.0805919762</v>
-      </c>
+      <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>14659.0126872963</v>
-      </c>
+      <c r="B18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>46677.3825042856</v>
-      </c>
+      <c r="B19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>9875.54538933644</v>
-      </c>
+      <c r="B20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>14041.7911004628</v>
-      </c>
+      <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -964,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>22981.297852068</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7929.64909911616</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7799.66687444646</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7">
@@ -988,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5459.76681211253</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="8">
@@ -996,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18805.8634639431</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="9">
@@ -1004,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4845.89667168209</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="10">
@@ -1012,7 +976,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9359.60024933574</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="11">
@@ -1020,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1299.94447907441</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12">
@@ -1028,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>55594.8006222909</v>
+        <v>88600</v>
       </c>
     </row>
     <row r="13">
@@ -1036,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>38841.062737244</v>
+        <v>61900</v>
       </c>
     </row>
     <row r="14">
@@ -1044,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17453.3490285409</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="15">
@@ -1052,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19993.2020588136</v>
+        <v>30700</v>
       </c>
     </row>
     <row r="16">
@@ -1060,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15173.9937449627</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="17">
@@ -1068,7 +1032,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47801.3365184664</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="18">
@@ -1076,7 +1040,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12373.6429679954</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="19">
@@ -1084,7 +1048,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39400.2841875643</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="20">
@@ -1092,7 +1056,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>8335.92789422853</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="21">
@@ -1100,7 +1064,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11852.6474746061</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="22">
@@ -1129,153 +1093,115 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
-        <v>35500</v>
-      </c>
+      <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>29458.8648552195</v>
-      </c>
+      <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>10164.7201417371</v>
-      </c>
+      <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>8845.54503433558</v>
-      </c>
+      <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6191.8815240349</v>
-      </c>
+      <c r="B7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>21327.5919161202</v>
-      </c>
+      <c r="B8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6211.77341995043</v>
-      </c>
+      <c r="B9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10614.6540412027</v>
-      </c>
+      <c r="B10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1474.2575057226</v>
-      </c>
+      <c r="B11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>73677.072475121</v>
-      </c>
+      <c r="B12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>51474.1623725732</v>
-      </c>
+      <c r="B13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>24753.3004452488</v>
-      </c>
+      <c r="B14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>28355.4598384006</v>
-      </c>
+      <c r="B15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>21520.5932975484</v>
-      </c>
+      <c r="B16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>67794.4870403455</v>
-      </c>
+      <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>17548.981658945</v>
-      </c>
+      <c r="B18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>55879.6521245354</v>
-      </c>
+      <c r="B19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>11822.4718544472</v>
-      </c>
+      <c r="B20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>16810.0771680421</v>
-      </c>
+      <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1303,153 +1229,115 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
-        <v>35500</v>
-      </c>
+      <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>26190.3069583379</v>
-      </c>
+      <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>9036.91102715814</v>
-      </c>
+      <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>8187.56246378006</v>
-      </c>
+      <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>5731.29372464605</v>
-      </c>
+      <c r="B7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>19741.1228293364</v>
-      </c>
+      <c r="B8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>5522.55673881886</v>
-      </c>
+      <c r="B9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>9825.07495653608</v>
-      </c>
+      <c r="B10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1364.59374396334</v>
-      </c>
+      <c r="B11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>57857.3240454502</v>
-      </c>
+      <c r="B12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>40421.7647676452</v>
-      </c>
+      <c r="B13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>17391.5534281032</v>
-      </c>
+      <c r="B14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>19922.4138150285</v>
-      </c>
+      <c r="B15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>15120.2684654777</v>
-      </c>
+      <c r="B16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>47632.0903590585</v>
-      </c>
+      <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>12329.8326542521</v>
-      </c>
+      <c r="B18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>39260.782925382</v>
-      </c>
+      <c r="B19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>8306.41357760147</v>
-      </c>
+      <c r="B20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>11810.6818056521</v>
-      </c>
+      <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1486,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>19127.6193441385</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="5">
@@ -1494,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6599.94533280182</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="6">
@@ -1502,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7312.42459727043</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7">
@@ -1510,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5118.69721808931</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="8">
@@ -1518,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>17631.0681956409</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="9">
@@ -1526,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4033.2999256011</v>
+        <v>10516.5211610347</v>
       </c>
     </row>
     <row r="10">
@@ -1534,7 +1422,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>8774.90951672451</v>
+        <v>12868.8714578556</v>
       </c>
     </row>
     <row r="11">
@@ -1542,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1218.73743287841</v>
+        <v>1779.45436914661</v>
       </c>
     </row>
     <row r="12">
@@ -1550,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>35550.7095660115</v>
+        <v>158940.870349548</v>
       </c>
     </row>
     <row r="13">
@@ -1558,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>24837.346750972</v>
+        <v>111039.325898838</v>
       </c>
     </row>
     <row r="14">
@@ -1566,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>13098.9543165649</v>
+        <v>41630.9061437134</v>
       </c>
     </row>
     <row r="15">
@@ -1574,7 +1462,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>15005.1454297963</v>
+        <v>47689.8812914926</v>
       </c>
     </row>
     <row r="16">
@@ -1582,7 +1470,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>11388.2699841776</v>
+        <v>36190.4669085269</v>
       </c>
     </row>
     <row r="17">
@@ -1590,7 +1478,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>35875.4942849202</v>
+        <v>114036.839960767</v>
       </c>
     </row>
     <row r="18">
@@ -1598,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>9286.57209010186</v>
+        <v>29506.955848155</v>
       </c>
     </row>
     <row r="19">
@@ -1606,7 +1494,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>29570.400602693</v>
+        <v>93990.3067796515</v>
       </c>
     </row>
     <row r="20">
@@ -1614,7 +1502,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>6256.2169870161</v>
+        <v>19871.1492029676</v>
       </c>
     </row>
     <row r="21">
@@ -1622,7 +1510,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>8895.55852841338</v>
+        <v>28260.8840229695</v>
       </c>
     </row>
     <row r="22">
@@ -1652,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -1660,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28518.6445578158</v>
+        <v>38300.5911112495</v>
       </c>
     </row>
     <row r="5">
@@ -1668,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9840.29908065209</v>
+        <v>13213.2295208145</v>
       </c>
     </row>
     <row r="6">
@@ -1676,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8795.35906558881</v>
+        <v>9337.4005314114</v>
       </c>
     </row>
     <row r="7">
@@ -1684,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6156.75134591217</v>
+        <v>6533.98037198798</v>
       </c>
     </row>
     <row r="8">
@@ -1692,7 +1580,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21206.587969253</v>
+        <v>22517.1546146253</v>
       </c>
     </row>
     <row r="9">
@@ -1700,7 +1588,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6013.51610484295</v>
+        <v>8069.58470716443</v>
       </c>
     </row>
     <row r="10">
@@ -1708,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10554.4308787066</v>
+        <v>11201.6806376937</v>
       </c>
     </row>
     <row r="11">
@@ -1716,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1465.89317759814</v>
+        <v>1547.90008856857</v>
       </c>
     </row>
     <row r="12">
@@ -1724,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>68875.3433336185</v>
+        <v>121171.27813143</v>
       </c>
     </row>
     <row r="13">
@@ -1732,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>48119.455444142</v>
+        <v>84651.7665500623</v>
       </c>
     </row>
     <row r="14">
@@ -1740,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24110.0754499175</v>
+        <v>31125.018013154</v>
       </c>
     </row>
     <row r="15">
@@ -1748,7 +1636,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>27618.6312056891</v>
+        <v>35655.1512314861</v>
       </c>
     </row>
     <row r="16">
@@ -1756,7 +1644,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20961.3715665327</v>
+        <v>27056.6164069585</v>
       </c>
     </row>
     <row r="17">
@@ -1764,7 +1652,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>66032.818582983</v>
+        <v>85263.250827071</v>
       </c>
     </row>
     <row r="18">
@@ -1772,7 +1660,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17092.9639383743</v>
+        <v>22058.7515764898</v>
       </c>
     </row>
     <row r="19">
@@ -1780,7 +1668,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>54427.5956985078</v>
+        <v>70273.6563356648</v>
       </c>
     </row>
     <row r="20">
@@ -1788,7 +1676,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>11515.2599163785</v>
+        <v>14853.411588372</v>
       </c>
     </row>
     <row r="21">
@@ -1796,7 +1684,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16373.2601936007</v>
+        <v>21126.2883522165</v>
       </c>
     </row>
     <row r="22">
@@ -1826,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -1834,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24899.3744653758</v>
+        <v>42460.6086600741</v>
       </c>
     </row>
     <row r="5">
@@ -1842,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8591.4774513118</v>
+        <v>14648.6349370224</v>
       </c>
     </row>
     <row r="6">
@@ -1850,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8063.74625063371</v>
+        <v>10110.0664234794</v>
       </c>
     </row>
     <row r="7">
@@ -1858,7 +1746,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5644.6223754436</v>
+        <v>7074.84649643555</v>
       </c>
     </row>
     <row r="8">
@@ -1866,7 +1754,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19442.5881820835</v>
+        <v>24380.1379321669</v>
       </c>
     </row>
     <row r="9">
@@ -1874,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5250.3473313572</v>
+        <v>8946.77690595811</v>
       </c>
     </row>
     <row r="10">
@@ -1882,7 +1770,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9676.49550076046</v>
+        <v>12128.8797081752</v>
       </c>
     </row>
     <row r="11">
@@ -1890,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1343.95770843895</v>
+        <v>1676.67773724656</v>
       </c>
     </row>
     <row r="12">
@@ -1898,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>51292.6274059965</v>
+        <v>147752.567221479</v>
       </c>
     </row>
     <row r="13">
@@ -1906,7 +1794,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>35835.3683570111</v>
+        <v>103222.667167151</v>
       </c>
     </row>
     <row r="14">
@@ -1914,7 +1802,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>15936.1664981052</v>
+        <v>39956.0811073356</v>
       </c>
     </row>
     <row r="15">
@@ -1922,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>18255.2355034263</v>
+        <v>45771.3317162389</v>
       </c>
     </row>
     <row r="16">
@@ -1930,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>13854.9507240989</v>
+        <v>34734.3690224223</v>
       </c>
     </row>
     <row r="17">
@@ -1938,7 +1826,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>43646.0679463028</v>
+        <v>109449.81915218</v>
       </c>
     </row>
     <row r="18">
@@ -1946,7 +1834,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11298.0284874625</v>
+        <v>28319.5798895289</v>
       </c>
     </row>
     <row r="19">
@@ -1954,7 +1842,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>35975.3012363941</v>
+        <v>90209.4517535</v>
       </c>
     </row>
     <row r="20">
@@ -1962,7 +1850,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>7611.30340208005</v>
+        <v>19071.2327676826</v>
       </c>
     </row>
     <row r="21">
@@ -1970,7 +1858,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>10822.3220248326</v>
+        <v>27123.5028415488</v>
       </c>
     </row>
     <row r="22">
@@ -2000,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -2008,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>16958.1478680011</v>
+        <v>47663.0617903981</v>
       </c>
     </row>
     <row r="5">
@@ -2016,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5851.37370525281</v>
+        <v>16443.7305858243</v>
       </c>
     </row>
     <row r="6">
@@ -2024,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7090.67780377446</v>
+        <v>10613.8005340383</v>
       </c>
     </row>
     <row r="7">
@@ -2032,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>4963.47446264213</v>
+        <v>7427.46037382684</v>
       </c>
     </row>
     <row r="8">
@@ -2040,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>17096.4120379895</v>
+        <v>25594.6968431813</v>
       </c>
     </row>
     <row r="9">
@@ -2048,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3575.83948654337</v>
+        <v>10043.7798024482</v>
       </c>
     </row>
     <row r="10">
@@ -2056,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>8508.81336452934</v>
+        <v>12733.360640846</v>
       </c>
     </row>
     <row r="11">
@@ -2064,7 +1952,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1181.77963396241</v>
+        <v>1760.63342233972</v>
       </c>
     </row>
     <row r="12">
@@ -2072,7 +1960,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>26500.1430347951</v>
+        <v>154527.753117341</v>
       </c>
     </row>
     <row r="13">
@@ -2080,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>18514.2082827745</v>
+        <v>107956.120970242</v>
       </c>
     </row>
     <row r="14">
@@ -2088,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>11169.9996870717</v>
+        <v>40792.9075756615</v>
       </c>
     </row>
     <row r="15">
@@ -2096,7 +1984,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>12795.4847161604</v>
+        <v>46729.9351706272</v>
       </c>
     </row>
     <row r="16">
@@ -2104,7 +1992,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>9711.23107122271</v>
+        <v>35461.9084519744</v>
       </c>
     </row>
     <row r="17">
@@ -2112,7 +2000,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>30592.4618295172</v>
+        <v>111741.72447961</v>
       </c>
     </row>
     <row r="18">
@@ -2120,7 +2008,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>7919.02962889405</v>
+        <v>28912.8523857302</v>
       </c>
     </row>
     <row r="19">
@@ -2128,7 +2016,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>25215.8575025312</v>
+        <v>92098.5562808777</v>
       </c>
     </row>
     <row r="20">
@@ -2136,7 +2024,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>5334.92522367607</v>
+        <v>19470.911080913</v>
       </c>
     </row>
     <row r="21">
@@ -2144,7 +2032,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>7585.59680241428</v>
+        <v>27691.7954431731</v>
       </c>
     </row>
     <row r="22">
@@ -2174,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -2182,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31681.743579397</v>
+        <v>41463.6901328307</v>
       </c>
     </row>
     <row r="5">
@@ -2190,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10931.7198293127</v>
+        <v>14304.6502694751</v>
       </c>
     </row>
     <row r="6">
@@ -2198,7 +2086,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9044.18177835494</v>
+        <v>9586.22324417753</v>
       </c>
     </row>
     <row r="7">
@@ -2206,7 +2094,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6330.92724484846</v>
+        <v>6708.15627092427</v>
       </c>
     </row>
     <row r="8">
@@ -2214,7 +2102,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21806.5271767002</v>
+        <v>23117.0938220725</v>
       </c>
     </row>
     <row r="9">
@@ -2222,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6680.49545124665</v>
+        <v>8736.56405356813</v>
       </c>
     </row>
     <row r="10">
@@ -2230,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10853.0181340259</v>
+        <v>11500.267893013</v>
       </c>
     </row>
     <row r="11">
@@ -2238,7 +2126,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1507.36362972582</v>
+        <v>1589.37054069626</v>
       </c>
     </row>
     <row r="12">
@@ -2246,7 +2134,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>92888.6433827867</v>
+        <v>145184.578180598</v>
       </c>
     </row>
     <row r="13">
@@ -2254,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>64896.2418216083</v>
+        <v>101428.552927529</v>
       </c>
     </row>
     <row r="14">
@@ -2262,7 +2150,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>27394.6926099237</v>
+        <v>34409.6351731602</v>
       </c>
     </row>
     <row r="15">
@@ -2270,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>31381.2336986813</v>
+        <v>39417.7537244783</v>
       </c>
     </row>
     <row r="16">
@@ -2278,7 +2166,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23817.0275302695</v>
+        <v>29912.2723706952</v>
       </c>
     </row>
     <row r="17">
@@ -2286,7 +2174,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>75028.7476704627</v>
+        <v>94259.1799145507</v>
       </c>
     </row>
     <row r="18">
@@ -2294,7 +2182,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19421.6104324086</v>
+        <v>24387.398070524</v>
       </c>
     </row>
     <row r="19">
@@ -2302,7 +2190,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>61842.49637688</v>
+        <v>77688.557014037</v>
       </c>
     </row>
     <row r="20">
@@ -2310,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13084.0322913069</v>
+        <v>16422.1839633004</v>
       </c>
     </row>
     <row r="21">
@@ -2318,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18603.8584142019</v>
+        <v>23356.8865728177</v>
       </c>
     </row>
     <row r="22">
@@ -2356,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29220.3138371678</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="5">
@@ -2364,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10082.4086083518</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="6">
@@ -2372,7 +2260,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8568.62572563951</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7">
@@ -2380,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5998.03800794766</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="8">
@@ -2388,7 +2276,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20659.9086940419</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="9">
@@ -2396,7 +2284,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6161.47192732613</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="10">
@@ -2404,7 +2292,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10282.3508707674</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="11">
@@ -2412,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1428.10428760659</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12">
@@ -2420,7 +2308,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>78259.243705319</v>
+        <v>88600</v>
       </c>
     </row>
     <row r="13">
@@ -2428,7 +2316,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>54675.4761327229</v>
+        <v>61900</v>
       </c>
     </row>
     <row r="14">
@@ -2436,7 +2324,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>22022.498747763</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="15">
@@ -2444,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>25227.2653565792</v>
+        <v>30700</v>
       </c>
     </row>
     <row r="16">
@@ -2452,7 +2340,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>19146.4261501074</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="17">
@@ -2460,7 +2348,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>60315.3510479777</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="18">
@@ -2468,7 +2356,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15612.9655301305</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="19">
@@ -2476,7 +2364,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>49714.969188047</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="20">
@@ -2484,7 +2372,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>10518.2083571405</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="21">
@@ -2492,7 +2380,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14955.5775078092</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="22">
@@ -2522,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -2530,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29957.2097633829</v>
+        <v>45681.1167820514</v>
       </c>
     </row>
     <row r="5">
@@ -2538,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10336.6730173973</v>
+        <v>15759.8645765545</v>
       </c>
     </row>
     <row r="6">
@@ -2546,7 +2434,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8677.62871238235</v>
+        <v>10452.1681049492</v>
       </c>
     </row>
     <row r="7">
@@ -2554,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6074.34009866765</v>
+        <v>7314.31767346443</v>
       </c>
     </row>
     <row r="8">
@@ -2562,7 +2450,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20922.7270065219</v>
+        <v>25204.9830974886</v>
       </c>
     </row>
     <row r="9">
@@ -2570,7 +2458,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6316.85573285392</v>
+        <v>9625.86168567219</v>
       </c>
     </row>
     <row r="10">
@@ -2578,7 +2466,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10413.1544548588</v>
+        <v>12539.401725939</v>
       </c>
     </row>
     <row r="11">
@@ -2586,7 +2474,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1446.27145206373</v>
+        <v>1733.6946841582</v>
       </c>
     </row>
     <row r="12">
@@ -2594,7 +2482,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>84122.4737987153</v>
+        <v>165963.42658133</v>
       </c>
     </row>
     <row r="13">
@@ -2602,7 +2490,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>58771.7960286736</v>
+        <v>115945.603898243</v>
       </c>
     </row>
     <row r="14">
@@ -2610,7 +2498,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>23368.0743366028</v>
+        <v>44033.0204776593</v>
       </c>
     </row>
     <row r="15">
@@ -2618,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>26768.6523184218</v>
+        <v>50441.5570397068</v>
       </c>
     </row>
     <row r="16">
@@ -2626,7 +2514,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20316.2735836883</v>
+        <v>38278.8722809501</v>
       </c>
     </row>
     <row r="17">
@@ -2634,7 +2522,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>64000.6215039792</v>
+        <v>120615.765039559</v>
       </c>
     </row>
     <row r="18">
@@ -2642,7 +2530,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>16566.9183729646</v>
+        <v>31209.9473535644</v>
       </c>
     </row>
     <row r="19">
@@ -2650,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>52752.5558718085</v>
+        <v>99412.9902574026</v>
       </c>
     </row>
     <row r="20">
@@ -2658,7 +2546,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>11160.8713249446</v>
+        <v>21018.4276908224</v>
       </c>
     </row>
     <row r="21">
@@ -2666,7 +2554,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>15869.3639151556</v>
+        <v>29892.170622888</v>
       </c>
     </row>
     <row r="22">
@@ -2696,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -2704,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>25458.0728988211</v>
+        <v>55469.4898081273</v>
       </c>
     </row>
     <row r="5">
@@ -2712,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8784.25518553576</v>
+        <v>19137.3223619097</v>
       </c>
     </row>
     <row r="6">
@@ -2720,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8190.10140927007</v>
+        <v>11603.9024697833</v>
       </c>
     </row>
     <row r="7">
@@ -2728,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5733.07098648906</v>
+        <v>8120.53172884834</v>
       </c>
     </row>
     <row r="8">
@@ -2736,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19747.2445090178</v>
+        <v>27981.9426215887</v>
       </c>
     </row>
     <row r="9">
@@ -2744,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5368.15594671629</v>
+        <v>11689.8636656115</v>
       </c>
     </row>
     <row r="10">
@@ -2752,7 +2640,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9828.12169112407</v>
+        <v>13921.48296374</v>
       </c>
     </row>
     <row r="11">
@@ -2760,7 +2648,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1365.01690154501</v>
+        <v>1925.65041163056</v>
       </c>
     </row>
     <row r="12">
@@ -2768,7 +2656,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>71761.748453266</v>
+        <v>195262.613143139</v>
       </c>
     </row>
     <row r="13">
@@ -2776,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>50136.0296755888</v>
+        <v>136415.351620319</v>
       </c>
     </row>
     <row r="14">
@@ -2784,7 +2672,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>21020.172679251</v>
+        <v>49644.369945642</v>
       </c>
     </row>
     <row r="15">
@@ -2792,7 +2680,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>24079.0784049628</v>
+        <v>56869.4834825078</v>
       </c>
     </row>
     <row r="16">
@@ -2800,7 +2688,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>18275.0008741248</v>
+        <v>43157.3962587111</v>
       </c>
     </row>
     <row r="17">
@@ -2808,7 +2696,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>57570.1744275007</v>
+        <v>135984.162463064</v>
       </c>
     </row>
     <row r="18">
@@ -2816,7 +2704,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14902.3612278271</v>
+        <v>35188.1428719103</v>
       </c>
     </row>
     <row r="19">
@@ -2824,7 +2712,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>47452.2554886075</v>
+        <v>112080.402302662</v>
       </c>
     </row>
     <row r="20">
@@ -2832,7 +2720,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>10039.4854587467</v>
+        <v>23698.4751979185</v>
       </c>
     </row>
     <row r="21">
@@ -2840,7 +2728,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>14274.8933866554</v>
+        <v>33702.8631720404</v>
       </c>
     </row>
     <row r="22">
@@ -2870,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -2878,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29962.7663800235</v>
+        <v>39744.7129334572</v>
       </c>
     </row>
     <row r="5">
@@ -2886,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10338.5903164298</v>
+        <v>13711.5207565923</v>
       </c>
     </row>
     <row r="6">
@@ -2894,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8903.8649817641</v>
+        <v>9445.90644758669</v>
       </c>
     </row>
     <row r="7">
@@ -2902,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6232.70548723487</v>
+        <v>6609.93451331068</v>
       </c>
     </row>
     <row r="8">
@@ -2910,7 +2798,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21468.2077893645</v>
+        <v>22778.7744347368</v>
       </c>
     </row>
     <row r="9">
@@ -2918,7 +2806,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6318.02741559601</v>
+        <v>8374.09601791749</v>
       </c>
     </row>
     <row r="10">
@@ -2926,7 +2814,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10684.6379781169</v>
+        <v>11331.887737104</v>
       </c>
     </row>
     <row r="11">
@@ -2934,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1483.97749696068</v>
+        <v>1565.98440793111</v>
       </c>
     </row>
     <row r="12">
@@ -2942,7 +2830,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>79338.0817403994</v>
+        <v>131634.016538211</v>
       </c>
     </row>
     <row r="13">
@@ -2950,7 +2838,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>55429.2015770962</v>
+        <v>91961.5126830165</v>
       </c>
     </row>
     <row r="14">
@@ -2958,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>25538.2946903481</v>
+        <v>32553.2372535845</v>
       </c>
     </row>
     <row r="15">
@@ -2966,7 +2854,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>29254.6883206599</v>
+        <v>37291.2083464569</v>
       </c>
     </row>
     <row r="16">
@@ -2974,7 +2862,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22203.0696375041</v>
+        <v>28298.3144779298</v>
       </c>
     </row>
     <row r="17">
@@ -2982,7 +2870,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>69944.4339653562</v>
+        <v>89174.8662094442</v>
       </c>
     </row>
     <row r="18">
@@ -2990,7 +2878,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>18105.5074297244</v>
+        <v>23071.2950678398</v>
       </c>
     </row>
     <row r="19">
@@ -2998,7 +2886,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>57651.7473420171</v>
+        <v>73497.8079791741</v>
       </c>
     </row>
     <row r="20">
@@ -3006,7 +2894,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12197.3944789722</v>
+        <v>15535.5461509658</v>
       </c>
     </row>
     <row r="21">
@@ -3014,7 +2902,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17343.1702747886</v>
+        <v>22096.1984334044</v>
       </c>
     </row>
     <row r="22">
@@ -3044,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -3052,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27163.0095809419</v>
+        <v>42886.9165996104</v>
       </c>
     </row>
     <row r="5">
@@ -3060,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9372.54004709819</v>
+        <v>14795.7316062553</v>
       </c>
     </row>
     <row r="6">
@@ -3068,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8331.44640628061</v>
+        <v>10105.9857988475</v>
       </c>
     </row>
     <row r="7">
@@ -3076,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5832.01248439643</v>
+        <v>7071.99005919321</v>
       </c>
     </row>
     <row r="8">
@@ -3084,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20088.0430018099</v>
+        <v>24370.2990927766</v>
       </c>
     </row>
     <row r="9">
@@ -3092,7 +2980,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5727.66336211555</v>
+        <v>9036.66931493382</v>
       </c>
     </row>
     <row r="10">
@@ -3100,7 +2988,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9997.73568753674</v>
+        <v>12123.9829586169</v>
       </c>
     </row>
     <row r="11">
@@ -3108,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1388.57440104677</v>
+        <v>1675.99763314124</v>
       </c>
     </row>
     <row r="12">
@@ -3116,7 +3004,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>65596.7877687332</v>
+        <v>147437.740551348</v>
       </c>
     </row>
     <row r="13">
@@ -3124,7 +3012,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>45828.9070303001</v>
+        <v>103002.714899869</v>
       </c>
     </row>
     <row r="14">
@@ -3132,7 +3020,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19167.7132053717</v>
+        <v>39832.6593464282</v>
       </c>
     </row>
     <row r="15">
@@ -3140,7 +3028,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>21957.0446046607</v>
+        <v>45629.9493259457</v>
       </c>
     </row>
     <row r="16">
@@ -3148,7 +3036,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16664.4670778045</v>
+        <v>34627.0657750663</v>
       </c>
     </row>
     <row r="17">
@@ -3156,7 +3044,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>52496.6473609805</v>
+        <v>109111.790896561</v>
       </c>
     </row>
     <row r="18">
@@ -3164,7 +3052,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13589.0504067933</v>
+        <v>28232.0793873931</v>
       </c>
     </row>
     <row r="19">
@@ -3172,7 +3060,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43270.3973479471</v>
+        <v>89930.8317335412</v>
       </c>
     </row>
     <row r="20">
@@ -3180,7 +3068,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9154.72869510286</v>
+        <v>19012.2850609806</v>
       </c>
     </row>
     <row r="21">
@@ -3188,7 +3076,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13016.8798633494</v>
+        <v>27039.6865710818</v>
       </c>
     </row>
     <row r="22">
@@ -3218,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -3226,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20762.2908749955</v>
+        <v>50773.7077843017</v>
       </c>
     </row>
     <row r="5">
@@ -3234,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7163.98534983876</v>
+        <v>17517.0525262127</v>
       </c>
     </row>
     <row r="6">
@@ -3242,7 +3130,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7570.11139025401</v>
+        <v>10983.9124507673</v>
       </c>
     </row>
     <row r="7">
@@ -3250,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5299.07797317781</v>
+        <v>7686.5387155371</v>
       </c>
     </row>
     <row r="8">
@@ -3258,7 +3146,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18252.3796853902</v>
+        <v>26487.0777979611</v>
       </c>
     </row>
     <row r="9">
@@ -3266,7 +3154,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4377.99104712367</v>
+        <v>10699.6987660189</v>
       </c>
     </row>
     <row r="10">
@@ -3274,7 +3162,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9084.13366830481</v>
+        <v>13177.4949409207</v>
       </c>
     </row>
     <row r="11">
@@ -3282,7 +3170,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1261.685231709</v>
+        <v>1822.31874179455</v>
       </c>
     </row>
     <row r="12">
@@ -3290,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>46220.895134455</v>
+        <v>169721.759824328</v>
       </c>
     </row>
     <row r="13">
@@ -3298,7 +3186,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>32292.0249302796</v>
+        <v>118571.34687501</v>
       </c>
     </row>
     <row r="14">
@@ -3306,7 +3194,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>15453.0579260335</v>
+        <v>44077.2551924245</v>
       </c>
     </row>
     <row r="15">
@@ -3314,7 +3202,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>17701.8238182547</v>
+        <v>50492.2288957997</v>
       </c>
     </row>
     <row r="16">
@@ -3322,7 +3210,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>13434.9346894246</v>
+        <v>38317.3300740109</v>
       </c>
     </row>
     <row r="17">
@@ -3330,7 +3218,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>42322.9273048828</v>
+        <v>120736.915340446</v>
       </c>
     </row>
     <row r="18">
@@ -3338,7 +3226,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10955.5261415909</v>
+        <v>31241.3077856741</v>
       </c>
     </row>
     <row r="19">
@@ -3346,7 +3234,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>34884.7016613816</v>
+        <v>99512.848475436</v>
       </c>
     </row>
     <row r="20">
@@ -3354,7 +3242,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>7380.56497959813</v>
+        <v>21039.5547187699</v>
       </c>
     </row>
     <row r="21">
@@ -3362,7 +3250,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>10494.240830366</v>
+        <v>29922.210615751</v>
       </c>
     </row>
     <row r="22">
@@ -3392,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -3400,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28946.1973667404</v>
+        <v>38728.1439201741</v>
       </c>
     </row>
     <row r="5">
@@ -3408,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9987.82528948231</v>
+        <v>13360.7557296447</v>
       </c>
     </row>
     <row r="6">
@@ -3416,7 +3304,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8844.84265734634</v>
+        <v>9386.88412316893</v>
       </c>
     </row>
     <row r="7">
@@ -3424,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6191.38986014244</v>
+        <v>6568.61888621826</v>
       </c>
     </row>
     <row r="8">
@@ -3432,7 +3320,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21325.8984071573</v>
+        <v>22636.4650525295</v>
       </c>
     </row>
     <row r="9">
@@ -3440,7 +3328,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6103.67101023919</v>
+        <v>8159.73961256067</v>
       </c>
     </row>
     <row r="10">
@@ -3448,7 +3336,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10613.8111888156</v>
+        <v>11261.0609478027</v>
       </c>
     </row>
     <row r="11">
@@ -3456,7 +3344,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1474.14044289106</v>
+        <v>1556.14735386149</v>
       </c>
     </row>
     <row r="12">
@@ -3464,7 +3352,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>73678.6239223395</v>
+        <v>125974.558720151</v>
       </c>
     </row>
     <row r="13">
@@ -3472,7 +3360,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>51475.2462843433</v>
+        <v>88007.5573902636</v>
       </c>
     </row>
     <row r="14">
@@ -3480,7 +3368,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24776.1311730321</v>
+        <v>31791.0737362685</v>
       </c>
     </row>
     <row r="15">
@@ -3488,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28381.6129482121</v>
+        <v>36418.1329740091</v>
       </c>
     </row>
     <row r="16">
@@ -3496,7 +3384,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21540.4424004346</v>
+        <v>27635.6872408603</v>
       </c>
     </row>
     <row r="17">
@@ -3504,7 +3392,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67857.0159739012</v>
+        <v>87087.4482179892</v>
       </c>
     </row>
     <row r="18">
@@ -3512,7 +3400,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17565.167622672</v>
+        <v>22530.9552607874</v>
       </c>
     </row>
     <row r="19">
@@ -3520,7 +3408,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55931.1916406134</v>
+        <v>71777.2522777704</v>
       </c>
     </row>
     <row r="20">
@@ -3528,7 +3416,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>11833.3760826422</v>
+        <v>15171.5277546357</v>
       </c>
     </row>
     <row r="21">
@@ -3536,7 +3424,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16825.5816175068</v>
+        <v>21578.6097761227</v>
       </c>
     </row>
     <row r="22">
@@ -3574,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>25724.6979027368</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="5">
@@ -3582,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8876.25358944275</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="6">
@@ -3590,7 +3478,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8185.82959578569</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7">
@@ -3598,7 +3486,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5730.08071704999</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="8">
@@ -3606,7 +3494,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19736.9446920611</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="9">
@@ -3614,7 +3502,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5424.37719354833</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="10">
@@ -3622,7 +3510,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9822.99551494283</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="11">
@@ -3630,7 +3518,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1364.30493263095</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12">
@@ -3638,7 +3526,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>57859.4451106003</v>
+        <v>88600</v>
       </c>
     </row>
     <row r="13">
@@ -3646,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>40423.2466404758</v>
+        <v>61900</v>
       </c>
     </row>
     <row r="14">
@@ -3654,7 +3542,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>17443.2111576058</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="15">
@@ -3662,7 +3550,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19981.58890069</v>
+        <v>30700</v>
       </c>
     </row>
     <row r="16">
@@ -3670,7 +3558,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15165.1798497095</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="17">
@@ -3678,7 +3566,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>47773.5708570245</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="18">
@@ -3686,7 +3574,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12366.4556714368</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="19">
@@ -3694,7 +3582,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>39377.3983222069</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="20">
@@ -3702,7 +3590,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>8331.08592602062</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="21">
@@ -3710,7 +3598,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11845.7628010606</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="22">
@@ -3748,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>18345.1418941828</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="5">
@@ -3756,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6329.95311364778</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="6">
@@ -3764,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7309.32114327568</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7">
@@ -3772,7 +3660,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5116.52480029297</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="8">
@@ -3780,7 +3668,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>17623.5854232314</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="9">
@@ -3788,7 +3676,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3868.30468056252</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="10">
@@ -3796,7 +3684,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>8771.18537193081</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="11">
@@ -3804,7 +3692,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1218.22019054595</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12">
@@ -3812,7 +3700,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>35553.6338201411</v>
+        <v>88600</v>
       </c>
     </row>
     <row r="13">
@@ -3820,7 +3708,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>24839.3897682477</v>
+        <v>61900</v>
       </c>
     </row>
     <row r="14">
@@ -3828,7 +3716,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>13167.4209314693</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="15">
@@ -3836,7 +3724,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>15083.575470004</v>
+        <v>30700</v>
       </c>
     </row>
     <row r="16">
@@ -3844,7 +3732,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>11447.7950635535</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="17">
@@ -3852,7 +3740,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>36063.0110585764</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="18">
@@ -3860,7 +3748,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>9335.11185439986</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="19">
@@ -3868,7 +3756,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>29724.9614311154</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="20">
@@ -3876,7 +3764,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>6288.91745980628</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="21">
@@ -3884,7 +3772,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>8942.05451316188</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="22">
@@ -3922,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>24219.6853754446</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="5">
@@ -3930,7 +3818,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8356.95214232596</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="6">
@@ -3938,7 +3826,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7994.88414185826</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7">
@@ -3946,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5596.41889930079</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="8">
@@ -3954,7 +3842,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19276.5539864805</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="9">
@@ -3962,7 +3850,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5107.02630919919</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="10">
@@ -3970,7 +3858,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9593.86097022991</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="11">
@@ -3978,7 +3866,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1332.48069030971</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12">
@@ -3986,7 +3874,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>63678.2745377785</v>
+        <v>88600</v>
       </c>
     </row>
     <row r="13">
@@ -3994,7 +3882,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>44488.5462064164</v>
+        <v>61900</v>
       </c>
     </row>
     <row r="14">
@@ -4002,7 +3890,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>19236.7608538959</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="15">
@@ -4010,7 +3898,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>22036.1402318882</v>
+        <v>30700</v>
       </c>
     </row>
     <row r="16">
@@ -4018,7 +3906,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>16724.4973095438</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="17">
@@ -4026,7 +3914,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>52685.7554729836</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="18">
@@ -4034,7 +3922,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>13638.0020979113</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="19">
@@ -4042,7 +3930,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>43426.2698380859</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="20">
@@ -4050,7 +3938,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9187.70667648761</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="21">
@@ -4058,7 +3946,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13063.7704306308</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="22">
@@ -4088,152 +3976,116 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>29710.8156176215</v>
-      </c>
+      <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>10251.6552290834</v>
-      </c>
+      <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>8874.70500804984</v>
-      </c>
+      <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6212.29350563489</v>
-      </c>
+      <c r="B7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>21397.8998527424</v>
-      </c>
+      <c r="B8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6264.90041777322</v>
-      </c>
+      <c r="B9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10649.6460096598</v>
-      </c>
+      <c r="B10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1479.11750134164</v>
-      </c>
+      <c r="B11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>76507.5771077602</v>
-      </c>
+      <c r="B12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>53451.6819748347</v>
-      </c>
+      <c r="B13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>25145.7975677984</v>
-      </c>
+      <c r="B14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>28805.0740795303</v>
-      </c>
+      <c r="B15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>21861.8314675262</v>
-      </c>
+      <c r="B16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>68869.4605028509</v>
-      </c>
+      <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>17827.2445443347</v>
-      </c>
+      <c r="B18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>56765.6997332763</v>
-      </c>
+      <c r="B19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>12009.9331667097</v>
-      </c>
+      <c r="B20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>17076.6237214153</v>
-      </c>
+      <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4262,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -4270,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26676.6582696399</v>
+        <v>44070.8627210627</v>
       </c>
     </row>
     <row r="5">
@@ -4278,7 +4130,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9204.72553712817</v>
+        <v>15204.2497567884</v>
       </c>
     </row>
     <row r="6">
@@ -4286,7 +4138,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8259.50443503033</v>
+        <v>10281.1172642143</v>
       </c>
     </row>
     <row r="7">
@@ -4294,7 +4146,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5781.65310452124</v>
+        <v>7194.58208494999</v>
       </c>
     </row>
     <row r="8">
@@ -4302,7 +4154,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19914.5829155732</v>
+        <v>24792.5605148277</v>
       </c>
     </row>
     <row r="9">
@@ -4310,7 +4162,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5625.11005046721</v>
+        <v>9286.31929581515</v>
       </c>
     </row>
     <row r="10">
@@ -4318,7 +4170,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9911.40532203641</v>
+        <v>12334.1407170571</v>
       </c>
     </row>
     <row r="11">
@@ -4326,7 +4178,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1376.58407250506</v>
+        <v>1705.18621070238</v>
       </c>
     </row>
     <row r="12">
@@ -4334,7 +4186,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>61727.0559070917</v>
+        <v>156857.996901404</v>
       </c>
     </row>
     <row r="13">
@@ -4342,7 +4194,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>43125.3358989727</v>
+        <v>109584.135532697</v>
       </c>
     </row>
     <row r="14">
@@ -4350,7 +4202,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>18279.6333167374</v>
+        <v>41994.5507924974</v>
       </c>
     </row>
     <row r="15">
@@ -4358,7 +4210,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>20939.7292098446</v>
+        <v>48106.4443779728</v>
       </c>
     </row>
     <row r="16">
@@ -4366,7 +4218,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15892.3677716411</v>
+        <v>36506.6206516862</v>
       </c>
     </row>
     <row r="17">
@@ -4374,7 +4226,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>50064.3688600195</v>
+        <v>115032.79209587</v>
       </c>
     </row>
     <row r="18">
@@ -4382,7 +4234,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12959.4415305227</v>
+        <v>29764.7636215467</v>
       </c>
     </row>
     <row r="19">
@@ -4390,7 +4242,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>41265.5901366646</v>
+        <v>94811.2210054513</v>
       </c>
     </row>
     <row r="20">
@@ -4398,7 +4250,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>8730.57113635217</v>
+        <v>20044.8302292525</v>
       </c>
     </row>
     <row r="21">
@@ -4406,7 +4258,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12413.7808345008</v>
+        <v>28507.8367322184</v>
       </c>
     </row>
     <row r="22">
@@ -4436,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -4444,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>19944.955109567</v>
+        <v>52763.3837385267</v>
       </c>
     </row>
     <row r="5">
@@ -4452,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6881.96534132029</v>
+        <v>18203.5860823031</v>
       </c>
     </row>
     <row r="6">
@@ -4460,7 +4312,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7441.26799376222</v>
+        <v>11297.5615270756</v>
       </c>
     </row>
     <row r="7">
@@ -4468,7 +4320,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5208.88759563356</v>
+        <v>7906.09306895291</v>
       </c>
     </row>
     <row r="8">
@@ -4476,7 +4328,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>17941.7239405156</v>
+        <v>27243.3205708378</v>
       </c>
     </row>
     <row r="9">
@@ -4484,7 +4336,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4205.64548636239</v>
+        <v>11119.2470502964</v>
       </c>
     </row>
     <row r="10">
@@ -4492,7 +4344,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>8929.52159251466</v>
+        <v>13553.8738324907</v>
       </c>
     </row>
     <row r="11">
@@ -4500,7 +4352,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1240.2113322937</v>
+        <v>1874.59358784593</v>
       </c>
     </row>
     <row r="12">
@@ -4508,7 +4360,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>40885.8023502333</v>
+        <v>182709.207915211</v>
       </c>
     </row>
     <row r="13">
@@ -4516,7 +4368,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>28564.6858406258</v>
+        <v>127644.970315481</v>
       </c>
     </row>
     <row r="14">
@@ -4524,7 +4376,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>14276.0061212992</v>
+        <v>46942.6035251616</v>
       </c>
     </row>
     <row r="15">
@@ -4532,7 +4384,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>16353.4846240255</v>
+        <v>53774.5495605396</v>
       </c>
     </row>
     <row r="16">
@@ -4540,7 +4392,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>12411.6023368011</v>
+        <v>40808.4724677711</v>
       </c>
     </row>
     <row r="17">
@@ -4548,7 +4400,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>39099.2107949015</v>
+        <v>128584.548460704</v>
       </c>
     </row>
     <row r="18">
@@ -4556,7 +4408,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10121.0491158464</v>
+        <v>33272.7114544056</v>
       </c>
     </row>
     <row r="19">
@@ -4564,7 +4416,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>32227.5511320373</v>
+        <v>105981.265420607</v>
       </c>
     </row>
     <row r="20">
@@ -4572,7 +4424,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>6818.39098330712</v>
+        <v>22408.0792955996</v>
       </c>
     </row>
     <row r="21">
@@ -4580,7 +4432,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>9694.89967938968</v>
+        <v>31868.0814984306</v>
       </c>
     </row>
     <row r="22">
@@ -4610,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -4618,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28732.4209622781</v>
+        <v>52763.3837385267</v>
       </c>
     </row>
     <row r="5">
@@ -4626,7 +4478,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9914.0621850672</v>
+        <v>18203.5860823031</v>
       </c>
     </row>
     <row r="6">
@@ -4634,7 +4486,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8820.10086146758</v>
+        <v>11297.5615270756</v>
       </c>
     </row>
     <row r="7">
@@ -4642,7 +4494,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6174.0706030273</v>
+        <v>7906.09306895291</v>
       </c>
     </row>
     <row r="8">
@@ -4650,7 +4502,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21266.2431882052</v>
+        <v>27243.3205708378</v>
       </c>
     </row>
     <row r="9">
@@ -4658,7 +4510,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6058.59355754107</v>
+        <v>11119.2470502964</v>
       </c>
     </row>
     <row r="10">
@@ -4666,7 +4518,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10584.1210337611</v>
+        <v>13553.8738324907</v>
       </c>
     </row>
     <row r="11">
@@ -4674,7 +4526,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1470.0168102446</v>
+        <v>1874.59358784593</v>
       </c>
     </row>
     <row r="12">
@@ -4682,7 +4534,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>71276.983627979</v>
+        <v>182709.207915211</v>
       </c>
     </row>
     <row r="13">
@@ -4690,7 +4542,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>49797.3508642427</v>
+        <v>127644.970315481</v>
       </c>
     </row>
     <row r="14">
@@ -4698,7 +4550,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24443.1033114748</v>
+        <v>46942.6035251616</v>
       </c>
     </row>
     <row r="15">
@@ -4706,7 +4558,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28000.1220769506</v>
+        <v>53774.5495605396</v>
       </c>
     </row>
     <row r="16">
@@ -4714,7 +4566,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21250.9069834837</v>
+        <v>40808.4724677711</v>
       </c>
     </row>
     <row r="17">
@@ -4722,7 +4574,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>66944.9172784421</v>
+        <v>128584.548460704</v>
       </c>
     </row>
     <row r="18">
@@ -4730,7 +4582,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17329.0657805231</v>
+        <v>33272.7114544056</v>
       </c>
     </row>
     <row r="19">
@@ -4738,7 +4590,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55179.3936695606</v>
+        <v>105981.265420607</v>
       </c>
     </row>
     <row r="20">
@@ -4746,7 +4598,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>11674.3179995103</v>
+        <v>22408.0792955996</v>
       </c>
     </row>
     <row r="21">
@@ -4754,7 +4606,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16599.4209055538</v>
+        <v>31868.0814984306</v>
       </c>
     </row>
     <row r="22">
@@ -4792,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>25312.0361840563</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="5">
@@ -4800,7 +4652,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8733.86552037727</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="6">
@@ -4808,7 +4660,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8124.7879232097</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7">
@@ -4816,7 +4668,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5687.35154624679</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="8">
@@ -4824,7 +4676,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>19589.7664370723</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="9">
@@ -4832,7 +4684,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5337.36226245277</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="10">
@@ -4840,7 +4692,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9749.74550785165</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="11">
@@ -4848,7 +4700,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1354.13132053495</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12">
@@ -4856,7 +4708,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>54576.0362582984</v>
+        <v>88600</v>
       </c>
     </row>
     <row r="13">
@@ -4864,7 +4716,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>38129.3074987435</v>
+        <v>61900</v>
       </c>
     </row>
     <row r="14">
@@ -4872,7 +4724,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16689.6888278555</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="15">
@@ -4880,7 +4732,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19118.4122020582</v>
+        <v>30700</v>
       </c>
     </row>
     <row r="16">
@@ -4888,7 +4740,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14510.0652869042</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="17">
@@ -4896,7 +4748,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>45709.8194016637</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="18">
@@ -4904,7 +4756,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>11832.2420794497</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="19">
@@ -4912,7 +4764,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>37676.3497793005</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="20">
@@ -4920,7 +4772,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>7971.19466405034</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="21">
@@ -4928,7 +4780,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11334.0424129466</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="22">
@@ -4958,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>35500</v>
+        <v>70999</v>
       </c>
     </row>
     <row r="4">
@@ -4966,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>17651.6448810919</v>
+        <v>41035.9432027248</v>
       </c>
     </row>
     <row r="5">
@@ -4974,7 +4826,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6090.6634094503</v>
+        <v>14157.0570795344</v>
       </c>
     </row>
     <row r="6">
@@ -4982,7 +4834,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7199.99947352507</v>
+        <v>9899.32731577654</v>
       </c>
     </row>
     <row r="7">
@@ -4990,7 +4842,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5039.99963146756</v>
+        <v>6927.32912104358</v>
       </c>
     </row>
     <row r="8">
@@ -4998,7 +4850,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>17359.9987306104</v>
+        <v>23872.022528039</v>
       </c>
     </row>
     <row r="9">
@@ -5006,7 +4858,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3722.07208355295</v>
+        <v>8646.36821527104</v>
       </c>
     </row>
     <row r="10">
@@ -5014,7 +4866,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>8639.99936823008</v>
+        <v>11875.9927789318</v>
       </c>
     </row>
     <row r="11">
@@ -5022,7 +4874,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1199.99991225418</v>
+        <v>1641.55455262942</v>
       </c>
     </row>
     <row r="12">
@@ -5030,7 +4882,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>31026.8884274681</v>
+        <v>136416.989040913</v>
       </c>
     </row>
     <row r="13">
@@ -5038,7 +4890,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>21676.7990255111</v>
+        <v>95303.1153683127</v>
       </c>
     </row>
     <row r="14">
@@ -5046,7 +4898,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>12168.7103092705</v>
+        <v>37354.634968912</v>
       </c>
     </row>
     <row r="15">
@@ -5054,7 +4906,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>13939.5300930822</v>
+        <v>42791.3169233432</v>
       </c>
     </row>
     <row r="16">
@@ -5062,7 +4914,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>10579.5130673881</v>
+        <v>32472.663984166</v>
       </c>
     </row>
     <row r="17">
@@ -5070,7 +4922,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>33327.7364440468</v>
+        <v>102324.962937244</v>
       </c>
     </row>
     <row r="18">
@@ -5078,7 +4930,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>8627.07074164694</v>
+        <v>26475.2710600495</v>
       </c>
     </row>
     <row r="19">
@@ -5086,7 +4938,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>27470.4094668233</v>
+        <v>84336.7841648946</v>
       </c>
     </row>
     <row r="20">
@@ -5094,7 +4946,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>5811.92134174117</v>
+        <v>17828.7510299281</v>
       </c>
     </row>
     <row r="21">
@@ -5102,7 +4954,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>8263.8256577881</v>
+        <v>25356.849120679</v>
       </c>
     </row>
     <row r="22">
